--- a/main/experiment/results_summary_excel/toy1_results_summary2.xlsx
+++ b/main/experiment/results_summary_excel/toy1_results_summary2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\workspace-VisualStudio\AG_IA_2324\main\experiment\results_summary_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C3A567-C3EC-4EFA-A6F8-2AC05F938E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464D6C9F-CFB9-4C71-ACBF-F01CBCC2ABDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-930" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="3615" windowWidth="28800" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5257,12 +5257,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
